--- a/210720_PRODUCTION/BOMs/BOM_DSP_Lab_SS21_Equalizer_VUMeter_fin.xlsx
+++ b/210720_PRODUCTION/BOMs/BOM_DSP_Lab_SS21_Equalizer_VUMeter_fin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GIT\Body-Synthesizer_STM32_F746ZG\210720_PRODUCTION\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0629077A-9BC7-496A-B8E4-3F6564EC90E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A13218-E12E-497C-9D82-3A0209A93B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2325" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_DSP_Lab_SS21_Equalizer_VUMe" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -747,7 +747,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -925,6 +925,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1088,8 +1100,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1444,12 +1458,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="5" max="5" width="56.06640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
@@ -1511,7 +1530,7 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>30</v>
       </c>
       <c r="C2" t="s">
@@ -1569,7 +1588,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>5</v>
       </c>
       <c r="B4">
@@ -1615,7 +1634,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -1635,7 +1654,7 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" t="s">
@@ -1655,7 +1674,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" t="s">
@@ -1675,7 +1694,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" t="s">
@@ -1736,7 +1755,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11" t="s">
@@ -1802,7 +1821,7 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>3</v>
       </c>
       <c r="B14" t="s">
@@ -1882,7 +1901,7 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18" t="s">
@@ -1922,7 +1941,7 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20" t="s">
@@ -1942,7 +1961,7 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" t="s">
@@ -1962,7 +1981,7 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" t="s">
@@ -2002,7 +2021,7 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>2</v>
       </c>
       <c r="B24" t="s">
@@ -2022,7 +2041,7 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>60</v>
       </c>
       <c r="B25" t="s">
@@ -2042,7 +2061,7 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>30</v>
       </c>
       <c r="B26" t="s">
@@ -2109,7 +2128,7 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>2</v>
       </c>
       <c r="B28" t="s">
@@ -2129,7 +2148,7 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>1</v>
       </c>
       <c r="B29" t="s">
@@ -2221,7 +2240,7 @@
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>1</v>
       </c>
       <c r="B33" t="s">
@@ -2241,7 +2260,7 @@
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>1</v>
       </c>
       <c r="B34" t="s">
@@ -2261,7 +2280,7 @@
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>1</v>
       </c>
       <c r="B35" t="s">
@@ -2281,7 +2300,7 @@
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>2</v>
       </c>
       <c r="B36" t="s">
@@ -2301,7 +2320,7 @@
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>1</v>
       </c>
       <c r="B37" t="s">
@@ -2321,7 +2340,7 @@
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>1</v>
       </c>
       <c r="B38" t="s">
@@ -2341,7 +2360,7 @@
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>1</v>
       </c>
       <c r="B39" t="s">
@@ -2361,7 +2380,7 @@
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>4</v>
       </c>
       <c r="B40" t="s">
@@ -2381,7 +2400,7 @@
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>1</v>
       </c>
       <c r="B41" t="s">
@@ -2401,7 +2420,7 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>1</v>
       </c>
       <c r="B42" t="s">
@@ -2447,7 +2466,7 @@
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>4</v>
       </c>
       <c r="B44" t="s">
@@ -2467,7 +2486,7 @@
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>1</v>
       </c>
       <c r="B45" t="s">
@@ -2513,7 +2532,7 @@
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>1</v>
       </c>
       <c r="B47" t="s">
@@ -2533,7 +2552,7 @@
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>1</v>
       </c>
       <c r="B48" t="s">
@@ -2746,7 +2765,7 @@
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>29</v>
       </c>
       <c r="B57" t="s">
@@ -2781,7 +2800,7 @@
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>1</v>
       </c>
       <c r="B58" t="s">
@@ -2819,7 +2838,7 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>1</v>
       </c>
       <c r="B59" t="s">
@@ -2860,7 +2879,7 @@
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>1</v>
       </c>
       <c r="B60" t="s">
@@ -2904,7 +2923,7 @@
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>5</v>
       </c>
       <c r="B61" t="s">
@@ -2945,7 +2964,7 @@
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>3</v>
       </c>
       <c r="B62" t="s">
@@ -2968,7 +2987,7 @@
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>3</v>
       </c>
       <c r="B63" t="s">

--- a/210720_PRODUCTION/BOMs/BOM_DSP_Lab_SS21_Equalizer_VUMeter_fin.xlsx
+++ b/210720_PRODUCTION/BOMs/BOM_DSP_Lab_SS21_Equalizer_VUMeter_fin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GIT\Body-Synthesizer_STM32_F746ZG\210720_PRODUCTION\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A13218-E12E-497C-9D82-3A0209A93B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361C7ECA-FD04-46BD-B376-845434A31857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1461,8 +1461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1550,7 +1550,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="C3" t="s">
@@ -1608,7 +1608,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -1714,7 +1714,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>3</v>
       </c>
       <c r="B10" t="s">
@@ -1775,7 +1775,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>1</v>
       </c>
       <c r="B12" t="s">
@@ -1801,7 +1801,7 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>18</v>
       </c>
       <c r="B13" t="s">
@@ -1841,7 +1841,7 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" t="s">
@@ -1861,7 +1861,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>8</v>
       </c>
       <c r="B16" t="s">
@@ -1881,7 +1881,7 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>12</v>
       </c>
       <c r="B17" t="s">
@@ -1921,7 +1921,7 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19" t="s">
@@ -2001,7 +2001,7 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23" t="s">
@@ -2102,7 +2102,7 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>1</v>
       </c>
       <c r="B27" t="s">
@@ -2168,7 +2168,7 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>2</v>
       </c>
       <c r="B30" t="s">
@@ -2194,7 +2194,7 @@
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>1</v>
       </c>
       <c r="B31" t="s">
@@ -2220,7 +2220,7 @@
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>2</v>
       </c>
       <c r="B32" t="s">
@@ -2440,7 +2440,7 @@
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>1</v>
       </c>
       <c r="B43" t="s">
@@ -2506,7 +2506,7 @@
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>1</v>
       </c>
       <c r="B46" t="s">
@@ -2572,7 +2572,7 @@
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>1</v>
       </c>
       <c r="B49" t="s">
@@ -2592,7 +2592,7 @@
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>1</v>
       </c>
       <c r="B50" t="s">
@@ -2612,7 +2612,7 @@
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>1</v>
       </c>
       <c r="B51" t="s">
@@ -2632,7 +2632,7 @@
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>1</v>
       </c>
       <c r="B52" t="s">
@@ -2652,7 +2652,7 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>1</v>
       </c>
       <c r="B53" t="s">
@@ -2672,7 +2672,7 @@
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>1</v>
       </c>
       <c r="B54" t="s">
@@ -2725,7 +2725,7 @@
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>1</v>
       </c>
       <c r="B55" t="s">
@@ -2745,7 +2745,7 @@
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.45">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>1</v>
       </c>
       <c r="B56" t="s">
